--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value663.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value663.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.74791229605294</v>
+        <v>1.353327631950378</v>
       </c>
       <c r="B1">
-        <v>2.037448864400911</v>
+        <v>2.309863805770874</v>
       </c>
       <c r="C1">
-        <v>2.079005083180825</v>
+        <v>2.78754997253418</v>
       </c>
       <c r="D1">
-        <v>2.538775446845678</v>
+        <v>3.213119745254517</v>
       </c>
       <c r="E1">
-        <v>3.157151765478218</v>
+        <v>2.074572324752808</v>
       </c>
     </row>
   </sheetData>
